--- a/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="101">
   <si>
     <t>土地坐落</t>
   </si>
@@ -212,6 +212,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台北富邦銀行</t>
   </si>
   <si>
@@ -270,6 +279,9 @@
   </si>
   <si>
     <t>4，797，260</t>
+  </si>
+  <si>
+    <t>2013-12-20</t>
   </si>
   <si>
     <t>投資人</t>
@@ -1457,13 +1469,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1482,13 +1494,22 @@
       <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1503,15 +1524,24 @@
         <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1528,13 +1558,22 @@
       <c r="G3" s="2">
         <v>6810</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1551,13 +1590,22 @@
       <c r="G4" s="2">
         <v>4080</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1574,13 +1622,22 @@
       <c r="G5" s="2">
         <v>24730</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1597,13 +1654,22 @@
       <c r="G6" s="2">
         <v>1476500</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1620,13 +1686,22 @@
       <c r="G7" s="2">
         <v>1130140</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1643,13 +1718,22 @@
       <c r="G8" s="2">
         <v>56100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1666,13 +1750,22 @@
       <c r="G9" s="2">
         <v>920</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1689,13 +1782,22 @@
       <c r="G10" s="2">
         <v>597260</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1712,13 +1814,22 @@
       <c r="G11" s="2">
         <v>181810</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1735,13 +1846,22 @@
       <c r="G12" s="2">
         <v>638090</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1758,13 +1878,22 @@
       <c r="G13" s="2">
         <v>222230</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1781,13 +1910,22 @@
       <c r="G14" s="2">
         <v>147630</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1804,13 +1942,22 @@
       <c r="G15" s="2">
         <v>73060</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -1827,19 +1974,28 @@
       <c r="G16" s="2">
         <v>52680</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
@@ -1850,13 +2006,22 @@
       <c r="G17" s="2">
         <v>22860</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1873,13 +2038,22 @@
       <c r="G18" s="2">
         <v>10450</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -1895,6 +2069,15 @@
       </c>
       <c r="G19" s="2">
         <v>1051790</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1711</v>
       </c>
     </row>
   </sheetData>
@@ -1912,22 +2095,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1938,19 +2121,19 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>20200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1961,19 +2144,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="103">
   <si>
     <t>土地坐落</t>
   </si>
@@ -212,6 +212,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -275,10 +278,13 @@
     <t>亞洲化學股份有限公司</t>
   </si>
   <si>
-    <t>2，286</t>
-  </si>
-  <si>
-    <t>4，797，260</t>
+    <t>2286</t>
+  </si>
+  <si>
+    <t>4797260</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-20</t>
@@ -1469,13 +1475,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1503,13 +1509,16 @@
       <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1524,24 +1533,27 @@
         <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1559,21 +1571,24 @@
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1591,21 +1606,24 @@
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1623,21 +1641,24 @@
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1655,21 +1676,24 @@
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1687,21 +1711,24 @@
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2">
+        <v>89</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1719,21 +1746,24 @@
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2">
+        <v>89</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1751,21 +1781,24 @@
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2">
+        <v>89</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1783,21 +1816,24 @@
         <v>597260</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="2">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1815,21 +1851,24 @@
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2">
+        <v>89</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1847,21 +1886,24 @@
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="2">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1879,21 +1921,24 @@
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="2">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1911,21 +1956,24 @@
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="2">
+        <v>89</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1943,21 +1991,24 @@
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="2">
+        <v>89</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -1975,27 +2026,30 @@
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="2">
+        <v>89</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
@@ -2007,21 +2061,24 @@
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="2">
+        <v>89</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -2039,21 +2096,24 @@
         <v>10450</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="2">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="2">
         <v>1711</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -2071,12 +2131,15 @@
         <v>1051790</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="2">
+        <v>89</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="2">
         <v>1711</v>
       </c>
     </row>
@@ -2095,22 +2158,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2121,19 +2184,19 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>20200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2144,19 +2207,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="108">
   <si>
     <t>土地坐落</t>
   </si>
@@ -215,6 +215,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -224,6 +227,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台北富邦銀行</t>
   </si>
   <si>
@@ -287,7 +296,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-20</t>
+  </si>
+  <si>
+    <t>tmp393a1</t>
   </si>
   <si>
     <t>投資人</t>
@@ -1475,13 +1490,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1512,13 +1527,22 @@
       <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1533,27 +1557,36 @@
         <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1571,24 +1604,33 @@
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2">
+        <v>93</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1606,24 +1648,33 @@
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1641,24 +1692,33 @@
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2">
+        <v>93</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1676,24 +1736,33 @@
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1711,24 +1780,33 @@
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2">
+        <v>93</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1746,24 +1824,33 @@
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2">
+        <v>93</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1781,24 +1868,33 @@
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2">
+        <v>93</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1816,24 +1912,33 @@
         <v>597260</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1711</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="2">
         <v>88</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1851,24 +1956,33 @@
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1711</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="2">
         <v>89</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1886,24 +2000,33 @@
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="2">
+        <v>93</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1921,24 +2044,33 @@
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2">
+        <v>93</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1956,24 +2088,33 @@
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="2">
+        <v>93</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1991,24 +2132,33 @@
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="2">
+        <v>93</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -2026,30 +2176,39 @@
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="2">
+        <v>93</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
@@ -2061,24 +2220,33 @@
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="2">
+        <v>93</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -2096,24 +2264,33 @@
         <v>10450</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="2">
+        <v>93</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="2">
         <v>1711</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -2131,16 +2308,25 @@
         <v>1051790</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="2">
+        <v>93</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="2">
         <v>1711</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="2">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2158,22 +2344,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2184,19 +2370,19 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>20200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2207,19 +2393,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
@@ -18,9 +18,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="108">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="113">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市石頭段00490032地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市石頭段00490033地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市石頭段01320055地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01110000地號</t>
+  </si>
+  <si>
+    <t>4分之2</t>
+  </si>
+  <si>
+    <t>10000分之566</t>
+  </si>
+  <si>
+    <t>廖正井</t>
+  </si>
+  <si>
+    <t>楊啟津</t>
+  </si>
+  <si>
+    <t>80年08月07日</t>
+  </si>
+  <si>
+    <t>81年08月12日</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-20</t>
+  </si>
+  <si>
+    <t>tmp393a1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,58 +134,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>桃圜縣中壢市石頭段0049-0032 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市石頭段0049-0033 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市石頭段0132-0055 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段 0111-0000 地號</t>
-  </si>
-  <si>
-    <t>4分之2</t>
-  </si>
-  <si>
-    <t>10000分之 566</t>
-  </si>
-  <si>
-    <t>廖正井</t>
-  </si>
-  <si>
-    <t>楊啟津</t>
-  </si>
-  <si>
-    <t>80年08月 07日</t>
-  </si>
-  <si>
-    <t>81年08月 12日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市石頭段06151 -000 建號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市石頭段06152-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段 01874-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段 01875-000 建號</t>
+    <t>桃圜縣中壢市石頭段06151000建號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市石頭段06152000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01874000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01875000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -101,16 +152,16 @@
     <t>30分之2</t>
   </si>
   <si>
-    <t>80年02月 13曰</t>
-  </si>
-  <si>
-    <t>81年10月 13日</t>
-  </si>
-  <si>
-    <t>81年10月 13曰</t>
-  </si>
-  <si>
-    <t>(超過五年，停 車位）</t>
+    <t>80年02月13曰</t>
+  </si>
+  <si>
+    <t>81年10月13日</t>
+  </si>
+  <si>
+    <t>81年10月13曰</t>
+  </si>
+  <si>
+    <t>(超過五年停車位）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -137,28 +188,28 @@
     <t>第一商業銀行民生分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行市府分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司桃 圜府前郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北信維郵局</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行信義分 行</t>
+    <t>台北富邦商業銀行市府分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司桃圜府前郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北信維郵局</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行信義分行</t>
   </si>
   <si>
     <t>臺灣土地銀行古亭分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行敦南分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行敦和分 行</t>
+    <t>中國信託商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行敦和分行</t>
   </si>
   <si>
     <t>兆豐國際商業銀行國外部</t>
@@ -191,13 +242,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1，041，062</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1041062</t>
   </si>
   <si>
     <t>quantity</t>
@@ -212,27 +257,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台北富邦銀行</t>
   </si>
   <si>
@@ -296,15 +320,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-20</t>
-  </si>
-  <si>
-    <t>tmp393a1</t>
-  </si>
-  <si>
     <t>投資人</t>
   </si>
   <si>
@@ -335,10 +350,10 @@
     <t>桃圜縣復興路147號</t>
   </si>
   <si>
-    <t>100年07月 14日</t>
-  </si>
-  <si>
-    <t>101年07月 15日</t>
+    <t>100年07月14日</t>
+  </si>
+  <si>
+    <t>101年07月15日</t>
   </si>
   <si>
     <t>個人投資</t>
@@ -700,13 +715,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,109 +743,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1466</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -848,25 +968,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -874,25 +994,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>187.97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -900,25 +1020,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>92.86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -926,25 +1046,25 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>219.71</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -952,25 +1072,25 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>475</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -988,19 +1108,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1008,16 +1128,16 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>2897128</v>
@@ -1028,16 +1148,16 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>1465357</v>
@@ -1048,16 +1168,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>1060910</v>
@@ -1068,16 +1188,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>608422</v>
@@ -1088,16 +1208,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>1366129</v>
@@ -1108,16 +1228,16 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>1466881</v>
@@ -1128,16 +1248,16 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>269111</v>
@@ -1148,16 +1268,16 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>1040087</v>
@@ -1168,16 +1288,16 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2">
         <v>1136533</v>
@@ -1188,19 +1308,19 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1208,16 +1328,16 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
         <v>1008078</v>
@@ -1228,16 +1348,16 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
         <v>231391</v>
@@ -1248,16 +1368,16 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
         <v>227330</v>
@@ -1268,16 +1388,16 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2">
         <v>2822314</v>
@@ -1288,16 +1408,16 @@
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2">
         <v>3393392</v>
@@ -1308,16 +1428,16 @@
         <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2">
         <v>1112015</v>
@@ -1328,16 +1448,16 @@
         <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2">
         <v>1288752</v>
@@ -1348,16 +1468,16 @@
         <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2">
         <v>7035</v>
@@ -1368,16 +1488,16 @@
         <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2">
         <v>229407</v>
@@ -1388,16 +1508,16 @@
         <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2">
         <v>717583</v>
@@ -1408,16 +1528,16 @@
         <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2">
         <v>916972</v>
@@ -1428,16 +1548,16 @@
         <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2">
         <v>138941</v>
@@ -1448,16 +1568,16 @@
         <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2">
         <v>1094552</v>
@@ -1468,16 +1588,16 @@
         <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2">
         <v>4000000</v>
@@ -1498,43 +1618,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1542,10 +1662,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>479726</v>
@@ -1554,28 +1674,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>1711</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>80</v>
@@ -1586,10 +1706,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>681</v>
@@ -1598,28 +1718,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2">
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>1711</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>81</v>
@@ -1630,10 +1750,10 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>408</v>
@@ -1642,28 +1762,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2">
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>1711</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>82</v>
@@ -1674,10 +1794,10 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>2473</v>
@@ -1686,28 +1806,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2">
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>1711</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>83</v>
@@ -1718,10 +1838,10 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>147650</v>
@@ -1730,28 +1850,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2">
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>1711</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>84</v>
@@ -1762,10 +1882,10 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>113014</v>
@@ -1774,28 +1894,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2">
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2">
         <v>1711</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>85</v>
@@ -1806,10 +1926,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>5610</v>
@@ -1818,28 +1938,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2">
         <v>1711</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
         <v>86</v>
@@ -1850,10 +1970,10 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>92</v>
@@ -1862,28 +1982,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2">
         <v>1711</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
         <v>87</v>
@@ -1894,10 +2014,10 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
         <v>59726</v>
@@ -1906,28 +2026,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2">
         <v>597260</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2">
         <v>1711</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
         <v>88</v>
@@ -1938,10 +2058,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>18181</v>
@@ -1950,28 +2070,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2">
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2">
         <v>1711</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
         <v>89</v>
@@ -1982,10 +2102,10 @@
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>63809</v>
@@ -1994,28 +2114,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2">
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1711</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2">
         <v>90</v>
@@ -2026,10 +2146,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
         <v>22223</v>
@@ -2038,28 +2158,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2">
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L13" s="2">
         <v>1711</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N13" s="2">
         <v>91</v>
@@ -2070,10 +2190,10 @@
         <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>14763</v>
@@ -2082,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G14" s="2">
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L14" s="2">
         <v>1711</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2">
         <v>92</v>
@@ -2114,10 +2234,10 @@
         <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2">
         <v>7306</v>
@@ -2126,28 +2246,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G15" s="2">
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2">
         <v>1711</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2">
         <v>93</v>
@@ -2158,10 +2278,10 @@
         <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2">
         <v>5268</v>
@@ -2170,28 +2290,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G16" s="2">
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L16" s="2">
         <v>1711</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N16" s="2">
         <v>94</v>
@@ -2202,40 +2322,40 @@
         <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2">
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2">
         <v>1711</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N17" s="2">
         <v>95</v>
@@ -2246,10 +2366,10 @@
         <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
         <v>1045</v>
@@ -2258,28 +2378,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2">
         <v>10450</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2">
         <v>1711</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2">
         <v>97</v>
@@ -2290,10 +2410,10 @@
         <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>105179</v>
@@ -2302,28 +2422,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2">
         <v>1051790</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L19" s="2">
         <v>1711</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N19" s="2">
         <v>98</v>
@@ -2344,22 +2464,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2367,22 +2487,22 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>20200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2390,22 +2510,22 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>桃圜縣中壢市石頭段00490032地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>桃圜縣中壢市石頭段00490033地號</t>
@@ -113,30 +116,15 @@
     <t>tmp393a1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>桃圜縣中壢市石頭段06151000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>80年02月13曰</t>
+  </si>
+  <si>
     <t>桃圜縣中壢市石頭段06152000建號</t>
   </si>
   <si>
@@ -146,15 +134,9 @@
     <t>臺北市大安區大安段二小段01875000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>30分之2</t>
   </si>
   <si>
-    <t>80年02月13曰</t>
-  </si>
-  <si>
     <t>81年10月13日</t>
   </si>
   <si>
@@ -164,24 +146,15 @@
     <t>(超過五年停車位）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行東桃園分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣土地銀行大安分行</t>
   </si>
   <si>
@@ -230,18 +203,12 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>1041062</t>
   </si>
   <si>
@@ -254,12 +221,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台北富邦銀行</t>
-  </si>
-  <si>
     <t>中國鋼鐵</t>
   </si>
   <si>
@@ -314,49 +275,28 @@
     <t>2286</t>
   </si>
   <si>
-    <t>4797260</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>加典投資公司</t>
   </si>
   <si>
+    <t>臺北市長春路378號6F</t>
+  </si>
+  <si>
+    <t>100年07月14日</t>
+  </si>
+  <si>
+    <t>個人投資</t>
+  </si>
+  <si>
     <t>桃花圜飯店股份有限公司</t>
   </si>
   <si>
-    <t>臺北市長春路378號6F</t>
-  </si>
-  <si>
     <t>桃圜縣復興路147號</t>
   </si>
   <si>
-    <t>100年07月14日</t>
-  </si>
-  <si>
     <t>101年07月15日</t>
-  </si>
-  <si>
-    <t>個人投資</t>
   </si>
 </sst>
 </file>
@@ -715,13 +655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,193 +704,170 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <v>1711</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2">
         <v>1711</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1466</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2">
         <v>1711</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1466</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1711</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2">
-        <v>16</v>
+      <c r="P4" s="2">
+        <v>0.0566</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>82.9756</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +877,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -968,129 +885,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>187.97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>187.97</v>
+        <v>92.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>219.71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2">
-        <v>92.86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>475</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2">
-        <v>219.71</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="2">
-        <v>475</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +991,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1108,498 +999,478 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2897128</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>2897128</v>
+        <v>1465357</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>1465357</v>
+        <v>1060910</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>1060910</v>
+        <v>608422</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>608422</v>
+        <v>1366129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
-        <v>1366129</v>
+        <v>1466881</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
-        <v>1466881</v>
+        <v>269111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>269111</v>
+        <v>1040087</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2">
-        <v>1040087</v>
+        <v>1136533</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1136533</v>
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1008078</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
-        <v>1008078</v>
+        <v>231391</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2">
-        <v>231391</v>
+        <v>227330</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2">
-        <v>227330</v>
+        <v>2822314</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2">
-        <v>2822314</v>
+        <v>3393392</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
-        <v>3393392</v>
+        <v>1112015</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2">
-        <v>1112015</v>
+        <v>1288752</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2">
-        <v>1288752</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
-        <v>7035</v>
+        <v>229407</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2">
-        <v>229407</v>
+        <v>717583</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2">
-        <v>717583</v>
+        <v>916972</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="2">
-        <v>916972</v>
+        <v>138941</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2">
-        <v>138941</v>
+        <v>1094552</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2">
-        <v>1094552</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>73</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="2">
         <v>4000000</v>
       </c>
     </row>
@@ -1610,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1624,16 +1495,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1659,793 +1530,749 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>479726</v>
+        <v>681</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6810</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>1711</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>681</v>
+        <v>408</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2">
-        <v>6810</v>
+        <v>4080</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>1711</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>408</v>
+        <v>2473</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2">
-        <v>4080</v>
+        <v>24730</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>1711</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>2473</v>
+        <v>147650</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2">
-        <v>24730</v>
+        <v>1476500</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>1711</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>147650</v>
+        <v>113014</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2">
-        <v>1476500</v>
+        <v>1130140</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>1711</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>113014</v>
+        <v>5610</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2">
-        <v>1130140</v>
+        <v>56100</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2">
         <v>1711</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>5610</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2">
-        <v>56100</v>
+        <v>920</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2">
         <v>1711</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>92</v>
+        <v>59726</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2">
-        <v>920</v>
+        <v>597260</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2">
         <v>1711</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>59726</v>
+        <v>18181</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2">
-        <v>597260</v>
+        <v>181810</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2">
         <v>1711</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>18181</v>
+        <v>63809</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2">
-        <v>181810</v>
+        <v>638090</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2">
         <v>1711</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <v>63809</v>
+        <v>22223</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2">
-        <v>638090</v>
+        <v>222230</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2">
         <v>1711</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>22223</v>
+        <v>14763</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2">
-        <v>222230</v>
+        <v>147630</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2">
         <v>1711</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
-        <v>14763</v>
+        <v>7306</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2">
-        <v>147630</v>
+        <v>73060</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2">
         <v>1711</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
-        <v>7306</v>
+        <v>5268</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2">
-        <v>73060</v>
+        <v>52680</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="2">
         <v>1711</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5268</v>
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2">
-        <v>52680</v>
+        <v>22860</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" s="2">
         <v>1711</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1045</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G17" s="2">
-        <v>22860</v>
+        <v>10450</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2">
         <v>1711</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2">
-        <v>1045</v>
+        <v>105179</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2">
-        <v>10450</v>
+        <v>1051790</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="2">
         <v>1711</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N18" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
-        <v>98</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2">
-        <v>105179</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1051790</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1711</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="2">
         <v>98</v>
       </c>
     </row>
@@ -2456,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2464,68 +2291,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20200000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
-        <v>20200000</v>
+        <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>桃圜縣中壢市石頭段00490032地號</t>
+  </si>
+  <si>
     <t>桃圜縣中壢市石頭段00490033地號</t>
   </si>
   <si>
@@ -119,24 +122,24 @@
     <t>桃圜縣中壢市石頭段06151000建號</t>
   </si>
   <si>
+    <t>桃圜縣中壢市石頭段06152000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01874000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段二小段01875000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>30分之2</t>
+  </si>
+  <si>
     <t>80年02月13曰</t>
   </si>
   <si>
-    <t>桃圜縣中壢市石頭段06152000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段01874000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段二小段01875000建號</t>
-  </si>
-  <si>
-    <t>30分之2</t>
-  </si>
-  <si>
     <t>81年10月13日</t>
   </si>
   <si>
@@ -221,6 +224,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>台北富邦銀行</t>
+  </si>
+  <si>
     <t>中國鋼鐵</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t>2286</t>
+  </si>
+  <si>
+    <t>4797260</t>
   </si>
   <si>
     <t>stock</t>
@@ -655,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -713,7 +722,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -722,40 +731,40 @@
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>1711</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.5</v>
@@ -766,66 +775,66 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>1711</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.5</v>
       </c>
       <c r="Q3" s="2">
-        <v>2</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1466</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -840,33 +849,86 @@
         <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>1711</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1466</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="2">
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>0.0566</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>82.9756</v>
       </c>
     </row>
@@ -877,73 +939,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>187.97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1">
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>187.97</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>92.86</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>219.71</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -955,33 +1071,140 @@
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>92.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
+        <v>219.71</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2">
-        <v>475</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>219.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>475</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1711</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>31.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -999,16 +1222,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1">
         <v>2897128</v>
@@ -1016,461 +1239,481 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
-        <v>1465357</v>
+        <v>2897128</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>1060910</v>
+        <v>1465357</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>608422</v>
+        <v>1060910</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
-        <v>1366129</v>
+        <v>608422</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
-        <v>1466881</v>
+        <v>1366129</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2">
-        <v>269111</v>
+        <v>1466881</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
-        <v>1040087</v>
+        <v>269111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
-        <v>1136533</v>
+        <v>1040087</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1136533</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1008078</v>
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
-        <v>231391</v>
+        <v>1008078</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
-        <v>227330</v>
+        <v>231391</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
-        <v>2822314</v>
+        <v>227330</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2">
-        <v>3393392</v>
+        <v>2822314</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
-        <v>1112015</v>
+        <v>3393392</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2">
-        <v>1288752</v>
+        <v>1112015</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2">
-        <v>7035</v>
+        <v>1288752</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2">
-        <v>229407</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2">
-        <v>717583</v>
+        <v>229407</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
-        <v>916972</v>
+        <v>717583</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2">
-        <v>138941</v>
+        <v>916972</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="2">
-        <v>1094552</v>
+        <v>138941</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2">
+        <v>1094552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2">
         <v>4000000</v>
       </c>
     </row>
@@ -1481,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1495,13 +1738,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1530,749 +1773,793 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
-        <v>681</v>
+        <v>479726</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6810</v>
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>1711</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
-        <v>408</v>
+        <v>681</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2">
-        <v>4080</v>
+        <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>1711</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>2473</v>
+        <v>408</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2">
-        <v>24730</v>
+        <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>1711</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>147650</v>
+        <v>2473</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2">
-        <v>1476500</v>
+        <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>1711</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>113014</v>
+        <v>147650</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2">
-        <v>1130140</v>
+        <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>1711</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>5610</v>
+        <v>113014</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2">
-        <v>56100</v>
+        <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <v>1711</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>92</v>
+        <v>5610</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2">
-        <v>920</v>
+        <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <v>1711</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>59726</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2">
-        <v>597260</v>
+        <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>1711</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>18181</v>
+        <v>59726</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2">
-        <v>181810</v>
+        <v>597260</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2">
         <v>1711</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>63809</v>
+        <v>18181</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2">
-        <v>638090</v>
+        <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="2">
         <v>1711</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
-        <v>22223</v>
+        <v>63809</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2">
-        <v>222230</v>
+        <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2">
         <v>1711</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>14763</v>
+        <v>22223</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2">
-        <v>147630</v>
+        <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2">
         <v>1711</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N13" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
-        <v>7306</v>
+        <v>14763</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2">
-        <v>73060</v>
+        <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="2">
         <v>1711</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N14" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
-        <v>5268</v>
+        <v>7306</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2">
-        <v>52680</v>
+        <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="2">
         <v>1711</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N15" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5268</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2">
-        <v>22860</v>
+        <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="2">
         <v>1711</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N16" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1045</v>
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2">
-        <v>10450</v>
+        <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="2">
         <v>1711</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2">
-        <v>105179</v>
+        <v>1045</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2">
-        <v>1051790</v>
+        <v>10450</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="2">
         <v>1711</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
+        <v>105179</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1051790</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="2">
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1711</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="2">
         <v>98</v>
       </c>
     </row>
@@ -2283,7 +2570,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2291,45 +2578,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1">
         <v>20200000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20200000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>137</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2">
         <v>500000</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>(超過五年停車位）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行東桃園分行</t>
@@ -1021,7 +1024,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -1074,7 +1077,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>30</v>
@@ -1127,7 +1130,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
@@ -1180,7 +1183,7 @@
         <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>30</v>
@@ -1222,13 +1225,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1242,13 +1245,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1262,13 +1265,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1282,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1302,13 +1305,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1322,13 +1325,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1342,13 +1345,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1362,13 +1365,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1382,13 +1385,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1402,13 +1405,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1422,19 +1425,19 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1442,13 +1445,13 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1462,13 +1465,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1482,13 +1485,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
@@ -1502,13 +1505,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1522,13 +1525,13 @@
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>23</v>
@@ -1542,13 +1545,13 @@
         <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
@@ -1562,13 +1565,13 @@
         <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
@@ -1582,13 +1585,13 @@
         <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>23</v>
@@ -1602,13 +1605,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>23</v>
@@ -1622,13 +1625,13 @@
         <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
@@ -1642,13 +1645,13 @@
         <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>23</v>
@@ -1662,13 +1665,13 @@
         <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -1682,13 +1685,13 @@
         <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>23</v>
@@ -1702,13 +1705,13 @@
         <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>23</v>
@@ -1738,13 +1741,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1776,7 +1779,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1788,13 +1791,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1820,7 +1823,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1832,13 +1835,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1864,7 +1867,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1876,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1908,7 +1911,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1920,13 +1923,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1952,7 +1955,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1964,13 +1967,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -1996,7 +1999,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -2008,13 +2011,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2">
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -2040,7 +2043,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2052,13 +2055,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2">
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
@@ -2084,7 +2087,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2096,13 +2099,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2">
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -2128,7 +2131,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2140,13 +2143,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>597260</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -2172,7 +2175,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2184,13 +2187,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -2216,7 +2219,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -2228,13 +2231,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2">
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -2260,7 +2263,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -2272,13 +2275,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2">
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
@@ -2304,7 +2307,7 @@
         <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -2316,13 +2319,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2">
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
@@ -2348,7 +2351,7 @@
         <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -2360,13 +2363,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2">
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>30</v>
@@ -2392,7 +2395,7 @@
         <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -2404,13 +2407,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2">
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
@@ -2436,25 +2439,25 @@
         <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2">
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
@@ -2480,7 +2483,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -2492,13 +2495,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2">
         <v>10450</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -2524,7 +2527,7 @@
         <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -2536,13 +2539,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="2">
         <v>1051790</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
@@ -2581,19 +2584,19 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>20200000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2604,19 +2607,19 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>20200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2627,19 +2630,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -152,79 +152,85 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行東桃園分行</t>
   </si>
   <si>
+    <t>臺灣土地銀行大安分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行市府分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司桃圜府前郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北信維郵局</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行古亭分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行敦和分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行國外部</t>
+  </si>
+  <si>
+    <t>華南商業銀行信維分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行大安分行</t>
+  </si>
+  <si>
+    <t>遠東國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行南東分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣土地銀行大安分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行市府分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司桃圜府前郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北信維郵局</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行古亭分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行敦和分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行國外部</t>
-  </si>
-  <si>
-    <t>華南商業銀行信維分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行大安分行</t>
-  </si>
-  <si>
-    <t>遠東國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行南東分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>1041062</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台北富邦銀行</t>
@@ -1217,13 +1223,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1234,24 +1240,45 @@
         <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2897128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1259,19 +1286,40 @@
       <c r="F2" s="2">
         <v>2897128</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1279,19 +1327,40 @@
       <c r="F3" s="2">
         <v>1465357</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1299,19 +1368,40 @@
       <c r="F4" s="2">
         <v>1060910</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1319,19 +1409,40 @@
       <c r="F5" s="2">
         <v>608422</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1339,19 +1450,40 @@
       <c r="F6" s="2">
         <v>1366129</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1359,19 +1491,40 @@
       <c r="F7" s="2">
         <v>1466881</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1379,19 +1532,40 @@
       <c r="F8" s="2">
         <v>269111</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1399,19 +1573,40 @@
       <c r="F9" s="2">
         <v>1040087</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1419,39 +1614,81 @@
       <c r="F10" s="2">
         <v>1136533</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="2">
+        <v>1041062</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1459,19 +1696,40 @@
       <c r="F12" s="2">
         <v>1008078</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1479,19 +1737,40 @@
       <c r="F13" s="2">
         <v>231391</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
@@ -1499,19 +1778,40 @@
       <c r="F14" s="2">
         <v>227330</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1519,19 +1819,40 @@
       <c r="F15" s="2">
         <v>2822314</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>23</v>
@@ -1539,19 +1860,40 @@
       <c r="F16" s="2">
         <v>3393392</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
@@ -1559,19 +1901,40 @@
       <c r="F17" s="2">
         <v>1112015</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
@@ -1579,19 +1942,40 @@
       <c r="F18" s="2">
         <v>1288752</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>23</v>
@@ -1599,19 +1983,40 @@
       <c r="F19" s="2">
         <v>7035</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>23</v>
@@ -1619,19 +2024,40 @@
       <c r="F20" s="2">
         <v>229407</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
@@ -1639,19 +2065,40 @@
       <c r="F21" s="2">
         <v>717583</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>23</v>
@@ -1659,19 +2106,40 @@
       <c r="F22" s="2">
         <v>916972</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -1679,19 +2147,40 @@
       <c r="F23" s="2">
         <v>138941</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>23</v>
@@ -1699,25 +2188,67 @@
       <c r="F24" s="2">
         <v>1094552</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="2">
         <v>4000000</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1741,13 +2272,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1779,7 +2310,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1791,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1823,7 +2354,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1835,13 +2366,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>6810</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1867,7 +2398,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1879,13 +2410,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>4080</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1911,7 +2442,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1923,13 +2454,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>24730</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1955,7 +2486,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1967,13 +2498,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>1476500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -1999,7 +2530,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -2011,13 +2542,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>1130140</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -2043,7 +2574,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2055,13 +2586,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>56100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
@@ -2087,7 +2618,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2099,13 +2630,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
         <v>920</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -2131,7 +2662,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2143,13 +2674,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>597260</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -2175,7 +2706,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2187,13 +2718,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2">
         <v>181810</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -2219,7 +2750,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -2231,13 +2762,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2">
         <v>638090</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -2263,7 +2794,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -2275,13 +2806,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2">
         <v>222230</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
@@ -2307,7 +2838,7 @@
         <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -2319,13 +2850,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2">
         <v>147630</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
@@ -2351,7 +2882,7 @@
         <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -2363,13 +2894,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2">
         <v>73060</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>30</v>
@@ -2395,7 +2926,7 @@
         <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -2407,13 +2938,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2">
         <v>52680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
@@ -2439,25 +2970,25 @@
         <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2">
         <v>22860</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
@@ -2483,7 +3014,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -2495,13 +3026,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2">
         <v>10450</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -2527,7 +3058,7 @@
         <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -2539,13 +3070,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2">
         <v>1051790</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
@@ -2584,19 +3115,19 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1">
         <v>20200000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2607,19 +3138,19 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>20200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2630,19 +3161,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
+++ b/legislator/property/output/normal/廖正井_2013-12-20_財產申報表_tmp393a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -296,25 +296,34 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>加典投資公司</t>
   </si>
   <si>
+    <t>桃花圜飯店股份有限公司</t>
+  </si>
+  <si>
     <t>臺北市長春路378號6F</t>
   </si>
   <si>
+    <t>桃圜縣復興路147號</t>
+  </si>
+  <si>
     <t>100年07月14日</t>
   </si>
   <si>
+    <t>101年07月15日</t>
+  </si>
+  <si>
     <t>個人投資</t>
   </si>
   <si>
-    <t>桃花圜飯店股份有限公司</t>
-  </si>
-  <si>
-    <t>桃圜縣復興路147號</t>
-  </si>
-  <si>
-    <t>101年07月15日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3104,15 +3113,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>92</v>
@@ -3120,17 +3129,38 @@
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1">
-        <v>20200000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>136</v>
       </c>
@@ -3138,22 +3168,43 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>20200000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1711</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>137</v>
       </c>
@@ -3161,7 +3212,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>97</v>
@@ -3170,10 +3221,31 @@
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1711</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
